--- a/src/assets/协议供货导入模版.xlsx
+++ b/src/assets/协议供货导入模版.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9920" yWindow="4460" windowWidth="38400" windowHeight="23020"/>
+    <workbookView xWindow="7320" yWindow="2040" windowWidth="38400" windowHeight="23020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>必填，不超过20个汉字</t>
+          <t>必填，不超过50个汉字</t>
         </r>
       </text>
     </comment>
@@ -74,7 +74,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>必填，不超过20个汉字</t>
+          <t>必填，不超过50个汉字</t>
         </r>
       </text>
     </comment>
@@ -110,7 +110,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>必填，不超过1000个汉</t>
+          <t>必填，不超过400个汉字</t>
         </r>
       </text>
     </comment>
@@ -122,7 +122,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>必填，不超过1000个汉字</t>
+          <t>必填，不超过400个汉字</t>
         </r>
       </text>
     </comment>
@@ -277,7 +277,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -338,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>

--- a/src/assets/协议供货导入模版.xlsx
+++ b/src/assets/协议供货导入模版.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liupeijiang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leslie\Web_learning\Learning-Lodash\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B9FEC0EB-7C72-48A8-9CB8-1BF109F46FC2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="2040" windowWidth="38400" windowHeight="23020"/>
+    <workbookView xWindow="7320" yWindow="2040" windowWidth="38400" windowHeight="23016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,34 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Vincent</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Vincent:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-必填，不超过50个汉字</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -78,7 +57,19 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必填，不超过50个汉字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -126,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -138,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -174,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -269,17 +260,17 @@
   </si>
   <si>
     <t>质保与售后服务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,12 +284,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -353,6 +338,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -644,27 +632,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
-    <col min="11" max="11" width="32.5" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="11" max="11" width="32.44140625" customWidth="1"/>
     <col min="12" max="13" width="15" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -708,7 +696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -750,7 +738,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>

--- a/src/assets/协议供货导入模版.xlsx
+++ b/src/assets/协议供货导入模版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leslie\Web_learning\Learning-Lodash\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B9FEC0EB-7C72-48A8-9CB8-1BF109F46FC2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{410161CF-2DDC-4BA0-A1D4-FB1B0C8F9364}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="2040" windowWidth="38400" windowHeight="23016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,7 +125,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>必填，不超过999,999,999.99</t>
+          <t>必填，不超过999,999,999.00</t>
         </r>
       </text>
     </comment>
@@ -636,7 +636,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/src/assets/协议供货导入模版.xlsx
+++ b/src/assets/协议供货导入模版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leslie\Web_learning\Learning-Lodash\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leslie\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{410161CF-2DDC-4BA0-A1D4-FB1B0C8F9364}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0C458746-C684-40C2-9342-46BEFC1498D2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="2040" windowWidth="38400" windowHeight="23016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4884" yWindow="1380" windowWidth="24516" windowHeight="11076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>必填，不超过50个汉字</t>
+          <t>必填，不超过20个汉字</t>
         </r>
       </text>
     </comment>
@@ -65,7 +65,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>必填，不超过50个汉字</t>
+          <t>必填，不超过20个汉字</t>
         </r>
       </text>
     </comment>
@@ -101,7 +101,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>必填，不超过400个汉字</t>
+          <t>必填，不超过1000个汉</t>
         </r>
       </text>
     </comment>
@@ -113,7 +113,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>必填，不超过400个汉字</t>
+          <t>必填，不超过1000个汉字</t>
         </r>
       </text>
     </comment>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>名称</t>
   </si>
@@ -235,31 +235,35 @@
     <t>（红字为必填）</t>
   </si>
   <si>
-    <t>十万分之一天枰</t>
-  </si>
-  <si>
-    <t>梅特勒</t>
-  </si>
-  <si>
-    <t>ME55</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>52g/0.01mg</t>
-  </si>
-  <si>
-    <t>一年</t>
-  </si>
-  <si>
-    <t>程度昱强</t>
-  </si>
-  <si>
-    <t>车伟强</t>
-  </si>
-  <si>
     <t>质保与售后服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3333222</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-05-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-05-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>444.44</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>222</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>333</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>444</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -267,9 +271,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -323,10 +324,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,21 +636,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
-    <col min="11" max="11" width="32.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="18.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="32.44140625" style="1" customWidth="1"/>
     <col min="12" max="13" width="15" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -662,17 +667,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -697,44 +702,38 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="M2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2">
-        <v>20194</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2">
-        <v>18912344321</v>
-      </c>
-      <c r="L2" s="1">
-        <v>43101</v>
-      </c>
-      <c r="M2" s="1">
-        <v>43466</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/协议供货导入模版.xlsx
+++ b/src/assets/协议供货导入模版.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leslie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leslie\Web_learning\Learning-Lodash\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0C458746-C684-40C2-9342-46BEFC1498D2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{02B3387F-98E7-410A-B1CA-5F9CE51084C6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4884" yWindow="1380" windowWidth="24516" windowHeight="11076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>必填，不超过1000个汉</t>
+          <t>必填，不超过1000个汉字</t>
         </r>
       </text>
     </comment>

--- a/src/assets/协议供货导入模版.xlsx
+++ b/src/assets/协议供货导入模版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leslie\Web_learning\Learning-Lodash\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{02B3387F-98E7-410A-B1CA-5F9CE51084C6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7F01F636-7408-4C09-9C93-F48AF10D222F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4884" yWindow="1380" windowWidth="24516" windowHeight="11076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>必填，不超过1000个汉字</t>
+          <t>必填，不超过400个汉字</t>
         </r>
       </text>
     </comment>
@@ -113,7 +113,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>必填，不超过1000个汉字</t>
+          <t>必填，不超过400个汉字</t>
         </r>
       </text>
     </comment>
@@ -637,7 +637,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/src/assets/协议供货导入模版.xlsx
+++ b/src/assets/协议供货导入模版.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leslie\Web_learning\Learning-Lodash\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renzhs\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7F01F636-7408-4C09-9C93-F48AF10D222F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55B7EB65-285F-4FA4-B637-CB06E141A6C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4884" yWindow="1380" windowWidth="24516" windowHeight="11076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>名称</t>
   </si>
@@ -239,7 +239,731 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3333222</t>
+    <t>肠梗阻导管套件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>库利艾特</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一次性使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>菌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>品，采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氧乙烷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>菌。由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>梗阻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导丝组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成，其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>梗阻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部(前端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、球囊、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>侧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孔)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管部、尾部(球囊用活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>气口、吸引口等)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成。按使用方法划分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鼻插入型(由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>梗阻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导丝组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成)和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肛插入型(由肛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门减压导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管，二腔接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>簧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导丝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种。采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氧乙烷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体_gb2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>菌。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.24mm L-3500mm</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6个月内免费退换货</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16DBR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波天脉健康管理有限公司</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任志森</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18842786547</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -251,19 +975,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>444.44</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>222</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>333</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>444</t>
+    <t>35g</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -271,7 +983,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +1009,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="楷体_gb2312"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -320,7 +1054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -328,6 +1062,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,30 +1374,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="18.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="32.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.5" style="1" customWidth="1"/>
     <col min="12" max="13" width="15" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="27" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -701,45 +1442,63 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:14" ht="14.25">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.25">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.25">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="14.25">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="14.25">
+      <c r="F6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/assets/协议供货导入模版.xlsx
+++ b/src/assets/协议供货导入模版.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renzhs\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leslie\Web_learning\Learning-Lodash\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55B7EB65-285F-4FA4-B637-CB06E141A6C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DFE63D-FD74-4AD0-BB3F-050C467FD1E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>必填，不超过50个汉字</t>
@@ -51,6 +52,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>必填，不超过20个汉字</t>
@@ -63,6 +65,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>必填，不超过20个汉字</t>
@@ -75,6 +78,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>非必填，不超过50个汉字</t>
@@ -87,6 +91,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>非必填，不超过50个汉字</t>
@@ -99,9 +104,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>必填，不超过400个汉字</t>
+          <t>必填，不超过2000个汉字</t>
         </r>
       </text>
     </comment>
@@ -111,9 +117,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>必填，不超过400个汉字</t>
+          <t>必填，不超过2000个汉字</t>
         </r>
       </text>
     </comment>
@@ -123,6 +130,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>必填，不超过999,999,999.00</t>
@@ -135,6 +143,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>必填，不超过255个汉字</t>
@@ -147,6 +156,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>必填，不超过255个汉字</t>
@@ -159,6 +169,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>必填，不超过20个字符</t>
@@ -171,6 +182,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>非必填，数据格式yyyy-mm-dd</t>
@@ -183,6 +195,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>非必填，数据格式yyyy-mm-dd</t>
@@ -236,15 +249,15 @@
   </si>
   <si>
     <t>质保与售后服务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>肠梗阻导管套件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>库利艾特</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -910,7 +923,7 @@
       </rPr>
       <t>菌。</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -927,7 +940,7 @@
       </rPr>
       <t>.24mm L-3500mm</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -944,39 +957,39 @@
       </rPr>
       <t>6个月内免费退换货</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>16DBR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2200</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>宁波天脉健康管理有限公司</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>任志森</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>18842786547</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2018-05-01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2020-05-01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>35g</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -997,11 +1010,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1027,6 +1035,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1064,10 +1078,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1377,24 +1391,24 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="23" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="32.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.44140625" style="1" customWidth="1"/>
     <col min="12" max="13" width="15" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1442,7 +1456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1483,20 +1497,20 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.25">
+    <row r="3" spans="1:14">
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="14.25">
+    <row r="4" spans="1:14">
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="14.25">
+    <row r="5" spans="1:14">
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="14.25">
+    <row r="6" spans="1:14">
       <c r="F6" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/src/assets/协议供货导入模版.xlsx
+++ b/src/assets/协议供货导入模版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leslie\Web_learning\Learning-Lodash\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DFE63D-FD74-4AD0-BB3F-050C467FD1E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D19612-F79E-49D1-BE25-58E0663C96A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,9 +209,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>名称</t>
-  </si>
-  <si>
     <t>品牌</t>
   </si>
   <si>
@@ -224,15 +221,9 @@
     <t>外观尺寸</t>
   </si>
   <si>
-    <t>主要技术参数</t>
-  </si>
-  <si>
     <t>协议价格</t>
   </si>
   <si>
-    <t>协议供应商</t>
-  </si>
-  <si>
     <t>联系人</t>
   </si>
   <si>
@@ -246,10 +237,6 @@
   </si>
   <si>
     <t>（红字为必填）</t>
-  </si>
-  <si>
-    <t>质保与售后服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>肠梗阻导管套件</t>
@@ -989,6 +976,22 @@
   </si>
   <si>
     <t>35g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后质保</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -996,7 +999,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1045,6 +1048,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1068,7 +1079,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,6 +1093,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1391,7 +1405,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1413,88 +1427,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14">

--- a/src/assets/协议供货导入模版.xlsx
+++ b/src/assets/协议供货导入模版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leslie\Web_learning\Learning-Lodash\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D19612-F79E-49D1-BE25-58E0663C96A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DE31D0-A91B-46CF-89E1-ED93F6A22810}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1405,7 +1405,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
